--- a/Expert-Assessment/Evaluations of I-ADOPT Corpus Variables.xlsx
+++ b/Expert-Assessment/Evaluations of I-ADOPT Corpus Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmaga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9774BC4-07FC-4555-9FB3-7EC63308F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947FB74E-EA72-4874-8A2A-7C3F8254847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 reviews'!$B$1:$AC$952</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'2 domain statistics'!$A$103</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'2 domain statistics'!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'2 domain statistics'!$A$103</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'2 domain statistics'!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'2 domain statistics'!$A$103</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'2 domain statistics'!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'2 domain statistics'!$A$103</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'2 domain statistics'!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2 domain statistics'!$A$103</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2 domain statistics'!$A$2:$A$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="708">
   <si>
     <t>Area</t>
   </si>
@@ -6246,7 +6256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6311,11 +6321,14 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6324,21 +6337,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6358,47 +6365,50 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6972300" cy="3533775"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>401270</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172072</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="223423343" name="Chart1" title="Chart">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F2B510D}"/>
-            </a:ext>
-            <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1958DB75-C224-845B-B9DA-E79F0E1B4ABB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495550" y="4419600"/>
-          <a:ext cx="6972300" cy="3533775"/>
+          <a:off x="4619625" y="4448175"/>
+          <a:ext cx="8745170" cy="4458322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13484,10 +13494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13502,7 +13512,7 @@
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>702</v>
       </c>
@@ -13512,29 +13522,17 @@
       <c r="D1" s="29" t="s">
         <v>702</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>699</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
         <v>699</v>
       </c>
-      <c r="M1" t="s">
-        <v>702</v>
-      </c>
-      <c r="N1" t="s">
-        <v>699</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -13542,32 +13540,20 @@
         <v>66</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>40</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="35">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -13575,22 +13561,16 @@
         <v>71</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="35">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -13598,12 +13578,12 @@
         <v>71</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="35">
         <v>11</v>
       </c>
       <c r="I4" s="25" t="s">
@@ -13612,14 +13592,8 @@
       <c r="J4" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="O4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -13627,12 +13601,12 @@
         <v>71</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="35">
         <v>5</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -13641,14 +13615,8 @@
       <c r="J5" s="27">
         <v>40</v>
       </c>
-      <c r="O5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -13656,12 +13624,12 @@
         <v>71</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="35">
         <v>2</v>
       </c>
       <c r="I6" s="23" t="s">
@@ -13670,14 +13638,8 @@
       <c r="J6" s="27">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -13685,12 +13647,12 @@
         <v>71</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="35">
         <v>4</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -13699,14 +13661,8 @@
       <c r="J7" s="27">
         <v>16</v>
       </c>
-      <c r="O7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -13714,12 +13670,12 @@
         <v>98</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="32" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="35">
         <v>2</v>
       </c>
       <c r="I8" s="23" t="s">
@@ -13728,14 +13684,8 @@
       <c r="J8" s="27">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
-        <v>209</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -13743,12 +13693,12 @@
         <v>66</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="35">
         <v>5</v>
       </c>
       <c r="I9" s="23" t="s">
@@ -13757,14 +13707,8 @@
       <c r="J9" s="27">
         <v>6</v>
       </c>
-      <c r="O9" t="s">
-        <v>247</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -13772,16 +13716,16 @@
         <v>107</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="37">
         <v>6</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="35">
         <v>2</v>
       </c>
       <c r="I10" s="24" t="s">
@@ -13790,20 +13734,8 @@
       <c r="J10" s="28">
         <v>102</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -13811,23 +13743,17 @@
         <v>98</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="35">
         <v>4</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="O11" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -13835,33 +13761,21 @@
         <v>98</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="37">
         <v>16</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="35">
         <v>11</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="M12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12">
-        <v>16</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -13869,22 +13783,16 @@
         <v>107</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="32" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="35">
         <v>5</v>
       </c>
-      <c r="O13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -13892,32 +13800,20 @@
         <v>66</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="37">
         <v>25</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="35">
         <v>14</v>
       </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>25</v>
-      </c>
-      <c r="O14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -13925,22 +13821,16 @@
         <v>107</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="35">
         <v>8</v>
       </c>
-      <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -13948,22 +13838,16 @@
         <v>147</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="32" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="44">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -13971,22 +13855,16 @@
         <v>147</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="32" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="35">
         <v>2</v>
       </c>
-      <c r="O17" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -13994,32 +13872,20 @@
         <v>154</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="37">
         <v>15</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="35">
         <v>12</v>
       </c>
-      <c r="M18" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18">
-        <v>15</v>
-      </c>
-      <c r="O18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -14027,22 +13893,16 @@
         <v>154</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="33" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="36">
         <v>3</v>
       </c>
-      <c r="O19" t="s">
-        <v>136</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -14050,17 +13910,17 @@
         <v>66</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="29" t="s">
         <v>701</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33">
         <f>SUM(G2:G19)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -14068,12 +13928,10 @@
         <v>66</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -14084,7 +13942,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -14095,7 +13953,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -14106,7 +13964,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -14117,7 +13975,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -14128,7 +13986,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -14139,7 +13997,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -14150,7 +14008,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -14161,7 +14019,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -14172,7 +14030,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -14183,7 +14041,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -14983,16 +14841,16 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="10">
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A103" xr:uid="{00000000-0002-0000-0100-000000000000}">
